--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED5B2CE-2B9E-4208-8E52-C610D13C9D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2BA3F9-040C-4CD5-98D4-4E9021702D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -1657,7 +1657,7 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -2992,7 +2992,7 @@
       <c r="Y1" s="25"/>
       <c r="Z1" s="25"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>106</v>
       </c>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>109</v>
       </c>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>133</v>
       </c>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>137</v>
       </c>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>141</v>
       </c>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>144</v>
       </c>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>182</v>
       </c>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>134</v>
       </c>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>138</v>
       </c>
@@ -3370,11 +3370,11 @@
       </c>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="F11" s="27"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="F12" s="27"/>
     </row>
@@ -3717,7 +3717,9 @@
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4254,7 +4256,9 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\github\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2BA3F9-040C-4CD5-98D4-4E9021702D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" tabRatio="684" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -34,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,12 +173,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -236,12 +235,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -332,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000008000000}">
+    <comment ref="K5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000009000000}">
+    <comment ref="I6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000A000000}">
+    <comment ref="J6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000B000000}">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="220">
   <si>
     <t>ID</t>
   </si>
@@ -1175,57 +1174,6 @@
     <t>두꺼운 발판</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>튕김</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>횟수</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>childColliderID_1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1235,17 +1183,33 @@
   </si>
   <si>
     <t>C101</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitDashSlash</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectileBounceCount</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>소멸까지 가능한 지형 충돌 횟수</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1312,26 +1276,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1356,6 +1308,12 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1369,7 +1327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1434,7 +1392,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1651,14 +1618,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection sqref="A1:AQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1707,7 +1674,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -1784,7 +1751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1951,14 +1918,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2293,7 +2260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2911,14 +2878,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2936,7 +2903,7 @@
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
@@ -2955,8 +2922,8 @@
       <c r="F1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>213</v>
+      <c r="G1" s="31" t="s">
+        <v>217</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>167</v>
@@ -2971,10 +2938,10 @@
         <v>170</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" s="24" t="s">
         <v>214</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>215</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>11</v>
@@ -3102,7 +3069,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>181</v>
@@ -3385,13 +3352,15 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3435,7 +3404,7 @@
       <c r="A2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="18" t="s">
         <v>191</v>
       </c>
       <c r="C2" s="4"/>
@@ -3458,10 +3427,10 @@
       <c r="A3" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3478,20 +3447,19 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="4"/>
+      <c r="A4" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="28"/>
       <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>219</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -3502,12 +3470,12 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>167</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
@@ -3525,14 +3493,14 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>168</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
@@ -3548,14 +3516,14 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
@@ -3570,13 +3538,13 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3593,13 +3561,13 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="A9" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
@@ -3615,14 +3583,38 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3711,7 +3703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4022,7 +4014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4150,7 +4142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4250,13 +4242,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -4430,7 +4422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4639,7 +4631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4718,7 +4710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4874,7 +4866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\github\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2BA3F9-040C-4CD5-98D4-4E9021702D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" tabRatio="660" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -34,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,12 +173,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -236,12 +235,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -332,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000008000000}">
+    <comment ref="K5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000009000000}">
+    <comment ref="I6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000A000000}">
+    <comment ref="J6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000B000000}">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="220">
   <si>
     <t>ID</t>
   </si>
@@ -1175,77 +1174,54 @@
     <t>두꺼운 발판</t>
   </si>
   <si>
+    <t>childColliderID_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>childColliderID_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>C101</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectileBounceCount</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>튕김</t>
+      <t>f</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="3"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>횟수</t>
+      <t>loat</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>childColliderID_1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>childColliderID_2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>C101</t>
+    <t>투사체 소멸까지 요구되는 지형충돌 횟수.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1319,16 +1295,11 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1369,7 +1340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1434,7 +1405,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1651,7 +1626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1707,7 +1682,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -1784,7 +1759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1951,7 +1926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2293,7 +2268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2911,14 +2886,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2956,7 +2931,7 @@
         <v>166</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>167</v>
@@ -2971,10 +2946,10 @@
         <v>170</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" s="24" t="s">
         <v>214</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>215</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>11</v>
@@ -3385,13 +3360,15 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D17:D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3477,21 +3454,19 @@
       <c r="L3" s="5"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="4"/>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>217</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -3502,10 +3477,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="3" t="s">
@@ -3525,14 +3500,14 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="3" t="s">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
@@ -3548,14 +3523,14 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>21</v>
@@ -3570,8 +3545,8 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>172</v>
+      <c r="A8" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>197</v>
@@ -3593,11 +3568,11 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>169</v>
+      <c r="A9" s="24" t="s">
+        <v>172</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="3" t="s">
@@ -3615,14 +3590,31 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3711,7 +3703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4022,7 +4014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4150,7 +4142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4250,13 +4242,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -4430,7 +4422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4639,7 +4631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4718,7 +4710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4874,7 +4866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" tabRatio="660" firstSheet="2" activeTab="13"/>
+    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" tabRatio="660" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>지속적으로 상승하는 속도의 배수</t>
@@ -58,6 +59,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>상승 최대 유지시간(체공 중)</t>
@@ -71,6 +73,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>체공 중 수평으로 추진하는 힘의 배수</t>
@@ -84,6 +87,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>수평으로 추진하는 힘의 배수</t>
@@ -97,6 +101,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>재사용 대기시간</t>
@@ -110,6 +115,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>무적 판정 시간</t>
@@ -123,6 +129,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>수직으로 추진하는 점프력 배수</t>
@@ -136,6 +143,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>체공 중 수평으로 추진하는 힘의 배수</t>
@@ -149,6 +157,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>수직으로 추진하는 점프력 배수</t>
@@ -162,6 +171,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>체공 중 수평으로 추진하는 힘의 배수</t>
@@ -185,6 +195,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>강공격 발동에 요구되는 차징 시간.(달성 시 강제 발사)</t>
@@ -198,6 +209,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>강공격 차징 완료 후 오즈매직이 발동할 전체 확률.</t>
@@ -211,6 +223,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>적 타격 시 재사용 대기 시간.</t>
@@ -224,6 +237,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">돌진베기의 이동거리 </t>
@@ -247,6 +261,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>투사체가 객체를 관통하는 동안 가하는 틱당 데미지</t>
@@ -260,6 +275,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>투사체의  틱당 데미지가 발생하는 간격</t>
@@ -273,6 +289,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>파생 콜라이더 폭발 범위의 반지름</t>
@@ -286,6 +303,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>투사체가 돌아오기 전까지의 편도 거리</t>
@@ -299,6 +317,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>투사체가 왕복운동하는 횟수</t>
@@ -312,6 +331,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>파생 콜라이더 폭발 범위의 반지름</t>
@@ -325,6 +345,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>파생 콜라이더 폭발 범위의 반지름</t>
@@ -338,6 +359,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>파생 콜라이더 폭발 범위의 반지름</t>
@@ -351,6 +373,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>시간정지 지속 시간</t>
@@ -364,6 +387,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>오즈매직으로 인해 느려지는 애니메이션 속도의 배율</t>
@@ -377,6 +401,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>연계 시 추가로 주어지는 시간정지 지속시간</t>
@@ -388,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="221">
   <si>
     <t>ID</t>
   </si>
@@ -1211,6 +1236,10 @@
   </si>
   <si>
     <t>투사체 소멸까지 요구되는 지형충돌 횟수.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectileBounceCount</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1932,8 +1961,8 @@
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2263,7 +2292,8 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2892,7 +2922,7 @@
   </sheetPr>
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -2931,7 +2961,7 @@
         <v>166</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>167</v>
@@ -3356,6 +3386,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3366,8 +3397,8 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D17:D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3385,7 +3416,7 @@
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
@@ -3408,7 +3439,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>165</v>
       </c>
@@ -3431,7 +3462,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>166</v>
       </c>
@@ -3475,7 +3506,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>167</v>
       </c>
@@ -3498,7 +3529,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
@@ -3521,7 +3552,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>170</v>
       </c>
@@ -3544,7 +3575,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>171</v>
       </c>
@@ -3567,7 +3598,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>172</v>
       </c>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2BA3F9-040C-4CD5-98D4-4E9021702D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -34,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,12 +173,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -236,12 +235,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -332,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000008000000}">
+    <comment ref="K5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000009000000}">
+    <comment ref="I6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000A000000}">
+    <comment ref="J6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000B000000}">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1241,7 +1240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m\-d"/>
   </numFmts>
@@ -1651,14 +1650,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1784,7 +1783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1951,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2293,7 +2292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2911,7 +2910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3385,7 +3384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3622,7 +3621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3711,7 +3710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4022,7 +4021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4150,7 +4149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4250,14 +4249,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4430,7 +4429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4639,7 +4638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4718,7 +4717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4874,7 +4873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\github\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9969DC40-CD62-4A1F-90EB-39437BCE7C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" tabRatio="684" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="684" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -33,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -142,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -173,12 +174,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -235,12 +236,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -266,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -279,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -292,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
       <text>
         <r>
           <rPr>
@@ -331,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0">
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000008000000}">
       <text>
         <r>
           <rPr>
@@ -344,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000009000000}">
       <text>
         <r>
           <rPr>
@@ -357,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0">
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -370,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0">
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1205,11 +1206,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1282,6 +1283,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1327,7 +1334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1404,6 +1411,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1618,23 +1626,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AQ1"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1672,7 +1681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>215</v>
       </c>
@@ -1708,7 +1717,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1743,6 +1752,12 @@
         <v>1</v>
       </c>
       <c r="L3" s="4"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1">
+      <c r="N9" s="27"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1">
+      <c r="P11" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -1751,7 +1766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1759,9 +1774,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
@@ -1783,7 +1798,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>101</v>
       </c>
@@ -1805,7 +1820,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -1827,7 +1842,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>111</v>
@@ -1847,7 +1862,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -1869,7 +1884,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>111</v>
@@ -1889,7 +1904,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>100</v>
       </c>
@@ -1918,7 +1933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1928,7 +1943,7 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
@@ -1937,7 +1952,7 @@
     <col min="13" max="13" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1982,7 +1997,7 @@
       </c>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -2025,7 +2040,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -2068,7 +2083,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -2111,7 +2126,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2154,7 +2169,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -2197,13 +2212,13 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -2212,44 +2227,44 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="17" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:13">
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:13">
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="K18" s="20"/>
       <c r="M18" s="20"/>
     </row>
-    <row r="19" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:13">
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:13">
       <c r="G20" s="20"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:13">
       <c r="G21" s="20"/>
     </row>
-    <row r="22" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:13">
       <c r="G22" s="20"/>
     </row>
-    <row r="23" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:13">
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:13">
       <c r="G24" s="20"/>
     </row>
-    <row r="25" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="7:13">
       <c r="G25" s="20"/>
     </row>
-    <row r="26" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="7:13">
       <c r="G26" s="20"/>
     </row>
-    <row r="27" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="7:13">
       <c r="G27" s="20"/>
     </row>
   </sheetData>
@@ -2260,7 +2275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2268,7 +2283,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
@@ -2277,7 +2292,7 @@
     <col min="13" max="13" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
@@ -2304,7 +2319,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
@@ -2331,7 +2346,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>125</v>
       </c>
@@ -2358,7 +2373,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>126</v>
       </c>
@@ -2384,7 +2399,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>127</v>
       </c>
@@ -2410,7 +2425,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
@@ -2435,7 +2450,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>136</v>
@@ -2459,7 +2474,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>146</v>
@@ -2483,7 +2498,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -2509,7 +2524,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>136</v>
@@ -2533,7 +2548,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>146</v>
@@ -2557,7 +2572,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -2583,7 +2598,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>136</v>
@@ -2607,7 +2622,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>140</v>
@@ -2631,7 +2646,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="15"/>
       <c r="B15" s="4" t="s">
         <v>143</v>
@@ -2657,7 +2672,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>146</v>
@@ -2681,7 +2696,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
         <v>129</v>
       </c>
@@ -2706,14 +2721,14 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2730,7 +2745,7 @@
       <c r="N19" s="8"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="5"/>
@@ -2747,7 +2762,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="5"/>
@@ -2764,7 +2779,7 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="5"/>
@@ -2781,7 +2796,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
@@ -2798,7 +2813,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
@@ -2814,7 +2829,7 @@
       <c r="M24" s="7"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2830,7 +2845,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2846,7 +2861,7 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2862,7 +2877,7 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -2878,17 +2893,17 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
@@ -2903,7 +2918,7 @@
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
@@ -2959,7 +2974,7 @@
       <c r="Y1" s="25"/>
       <c r="Z1" s="25"/>
     </row>
-    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>106</v>
       </c>
@@ -3001,7 +3016,7 @@
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>109</v>
       </c>
@@ -3043,7 +3058,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="12.75">
       <c r="A4" s="3" t="s">
         <v>133</v>
       </c>
@@ -3085,7 +3100,7 @@
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="12.75">
       <c r="A5" s="3" t="s">
         <v>137</v>
       </c>
@@ -3127,7 +3142,7 @@
       </c>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="12.75">
       <c r="A6" s="3" t="s">
         <v>141</v>
       </c>
@@ -3169,7 +3184,7 @@
       </c>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="12.75">
       <c r="A7" s="3" t="s">
         <v>144</v>
       </c>
@@ -3211,7 +3226,7 @@
       </c>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="12.75">
       <c r="A8" s="3" t="s">
         <v>182</v>
       </c>
@@ -3253,7 +3268,7 @@
       </c>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="12.75">
       <c r="A9" s="3" t="s">
         <v>134</v>
       </c>
@@ -3295,7 +3310,7 @@
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="12.75">
       <c r="A10" s="3" t="s">
         <v>138</v>
       </c>
@@ -3337,11 +3352,11 @@
       </c>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="12.75">
       <c r="A11" s="4"/>
       <c r="F11" s="27"/>
     </row>
-    <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="12.75">
       <c r="A12" s="4"/>
       <c r="F12" s="27"/>
     </row>
@@ -3352,7 +3367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3362,7 +3377,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
@@ -3377,7 +3392,7 @@
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="12.75">
       <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
@@ -3400,7 +3415,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="12.75">
       <c r="A2" s="1" t="s">
         <v>165</v>
       </c>
@@ -3423,7 +3438,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="12.75">
       <c r="A3" s="1" t="s">
         <v>166</v>
       </c>
@@ -3446,7 +3461,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="12.75">
       <c r="A4" s="31" t="s">
         <v>217</v>
       </c>
@@ -3468,7 +3483,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="12.75">
       <c r="A5" s="1" t="s">
         <v>167</v>
       </c>
@@ -3491,7 +3506,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="12.75">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
@@ -3514,7 +3529,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="12.75">
       <c r="A7" s="1" t="s">
         <v>170</v>
       </c>
@@ -3537,7 +3552,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="12.75">
       <c r="A8" s="1" t="s">
         <v>171</v>
       </c>
@@ -3560,7 +3575,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="12.75">
       <c r="A9" s="24" t="s">
         <v>172</v>
       </c>
@@ -3583,7 +3598,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>169</v>
       </c>
@@ -3599,7 +3614,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -3614,7 +3629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3624,9 +3639,9 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>199</v>
       </c>
@@ -3640,7 +3655,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>201</v>
       </c>
@@ -3654,7 +3669,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>205</v>
       </c>
@@ -3668,7 +3683,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -3682,7 +3697,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>205</v>
       </c>
@@ -3703,23 +3718,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -3741,7 +3756,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3761,7 +3776,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3783,7 +3798,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3805,7 +3820,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3827,7 +3842,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3849,7 +3864,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3863,7 +3878,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3879,7 +3894,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3895,7 +3910,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3911,7 +3926,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -3927,7 +3942,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3943,7 +3958,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -3959,7 +3974,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3975,7 +3990,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -3991,7 +4006,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -4014,7 +4029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4024,7 +4039,7 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
@@ -4034,7 +4049,7 @@
     <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4069,7 +4084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -4102,7 +4117,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>47</v>
       </c>
@@ -4142,7 +4157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4150,7 +4165,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
@@ -4160,7 +4175,7 @@
     <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -4175,7 +4190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -4190,7 +4205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -4205,7 +4220,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -4220,7 +4235,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -4242,23 +4257,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4286,7 +4301,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -4312,7 +4327,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
@@ -4338,7 +4353,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>65</v>
       </c>
@@ -4364,7 +4379,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>67</v>
       </c>
@@ -4390,7 +4405,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4402,7 +4417,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -4422,7 +4437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4430,13 +4445,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
@@ -4458,7 +4473,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -4480,7 +4495,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
         <v>63</v>
@@ -4500,7 +4515,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>74</v>
@@ -4520,7 +4535,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -4542,7 +4557,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>63</v>
@@ -4562,7 +4577,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -4584,7 +4599,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>74</v>
@@ -4604,7 +4619,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
         <v>63</v>
@@ -4631,15 +4646,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
@@ -4647,7 +4664,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4676,7 +4693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4710,15 +4727,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
@@ -4726,7 +4745,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
@@ -4745,7 +4764,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -4764,7 +4783,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -4783,7 +4802,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -4802,7 +4821,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -4821,7 +4840,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -4840,7 +4859,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -4866,7 +4885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4874,9 +4893,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4908,7 +4927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -4938,7 +4957,7 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -4968,7 +4987,7 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -4998,7 +5017,7 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -5028,7 +5047,7 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
@@ -5058,7 +5077,7 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,30 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\aa\ProjectOz\Assets\Resource\Xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="Pc" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Pc설명표" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Enemy" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Enemy설명표" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Moveset" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="Moveset설명표" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="Resource" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="Resource설명표" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="Skill" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="Skill설명표" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="Ozmagic" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="ozmagic설명표" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="Projectile" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="Projectile설명표" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="Level" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="Pc" sheetId="1" r:id="rId1"/>
+    <sheet name="Pc설명표" sheetId="2" r:id="rId2"/>
+    <sheet name="Enemy" sheetId="3" r:id="rId3"/>
+    <sheet name="Enemy설명표" sheetId="4" r:id="rId4"/>
+    <sheet name="Moveset" sheetId="5" r:id="rId5"/>
+    <sheet name="Moveset설명표" sheetId="6" r:id="rId6"/>
+    <sheet name="Resource" sheetId="7" r:id="rId7"/>
+    <sheet name="Resource설명표" sheetId="8" r:id="rId8"/>
+    <sheet name="Skill" sheetId="9" r:id="rId9"/>
+    <sheet name="Skill설명표" sheetId="10" r:id="rId10"/>
+    <sheet name="Ozmagic" sheetId="11" r:id="rId11"/>
+    <sheet name="ozmagic설명표" sheetId="12" r:id="rId12"/>
+    <sheet name="Projectile" sheetId="13" r:id="rId13"/>
+    <sheet name="Projectile설명표" sheetId="14" r:id="rId14"/>
+    <sheet name="Level" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -33,13 +37,13 @@
 </workbook>
 </file>
 
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,11 +52,11 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">투사체가 객체를 관통하는 동안 가하는 틱당 데미지</t>
+          <t>지속적으로 상승하는 속도의 배수</t>
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,11 +65,11 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">투사체가 돌아오기 전까지의 편도 거리</t>
+          <t>상승 최대 유지시간(체공 중)</t>
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,11 +78,11 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">시간정지 지속 시간</t>
+          <t>체공 중 수평으로 추진하는 힘의 배수</t>
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,11 +91,11 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">투사체의  틱당 데미지가 발생하는 간격</t>
+          <t>수평으로 추진하는 힘의 배수</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,11 +104,11 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">투사체가 왕복운동하는 횟수</t>
+          <t>재사용 대기시간</t>
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,11 +117,11 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">오즈매직으로 인해 느려지는 애니메이션 속도의 배율</t>
+          <t>무적 판정 시간</t>
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,11 +130,11 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">파생 콜라이더 폭발 범위의 반지름</t>
+          <t>수직으로 추진하는 점프력 배수</t>
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,11 +143,11 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">파생 콜라이더 폭발 범위의 반지름</t>
+          <t>체공 중 수평으로 추진하는 힘의 배수</t>
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,11 +156,11 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">파생 콜라이더 폭발 범위의 반지름</t>
+          <t>수직으로 추진하는 점프력 배수</t>
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -165,11 +169,21 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">파생 콜라이더 폭발 범위의 반지름</t>
+          <t>체공 중 수평으로 추진하는 힘의 배수</t>
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,21 +192,11 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">연계 시 추가로 주어지는 시간정지 지속시간</t>
+          <t>강공격 발동에 요구되는 차징 시간.(달성 시 강제 발사)</t>
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="E2" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -201,11 +205,11 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">지속적으로 상승하는 속도의 배수</t>
+          <t>강공격 차징 완료 후 오즈매직이 발동할 전체 확률.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,164 +218,11 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">수평으로 추진하는 힘의 배수</t>
+          <t>적 타격 시 재사용 대기 시간.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">수직으로 추진하는 점프력 배수</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">수직으로 추진하는 점프력 배수</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">상승 최대 유지시간(체공 중)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">재사용 대기시간</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">체공 중 수평으로 추진하는 힘의 배수</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">무적 판정 시간</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">체공 중 수평으로 추진하는 힘의 배수</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">체공 중 수평으로 추진하는 힘의 배수</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="G3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">강공격 발동에 요구되는 차징 시간.(달성 시 강제 발사)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">적 타격 시 재사용 대기 시간.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">강공격 차징 완료 후 오즈매직이 발동할 전체 확률.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -388,88 +239,241 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="I2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>투사체가 객체를 관통하는 동안 가하는 틱당 데미지</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>투사체의  틱당 데미지가 발생하는 간격</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파생 콜라이더 폭발 범위의 반지름</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>투사체가 돌아오기 전까지의 편도 거리</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>투사체가 왕복운동하는 횟수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파생 콜라이더 폭발 범위의 반지름</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파생 콜라이더 폭발 범위의 반지름</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파생 콜라이더 폭발 범위의 반지름</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간정지 지속 시간</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오즈매직으로 인해 느려지는 애니메이션 속도의 배율</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>연계 시 추가로 주어지는 시간정지 지속시간</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="212">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcHp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcBasePower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcMoveSpeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moveSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skillSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ozMagicSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resourceID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcIgnoreColTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">법사모드 오즈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wizard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">검사모드 오즈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">swordman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">컬럼명</t>
-  </si>
-  <si>
-    <t xml:space="preserve">설명</t>
-  </si>
-  <si>
-    <t xml:space="preserve">데이터 형식</t>
-  </si>
-  <si>
-    <t xml:space="preserve">단위</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="213">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>pcType</t>
+  </si>
+  <si>
+    <t>pcHp</t>
+  </si>
+  <si>
+    <t>pcBasePower</t>
+  </si>
+  <si>
+    <t>pcMoveSpeed</t>
+  </si>
+  <si>
+    <t>moveSet</t>
+  </si>
+  <si>
+    <t>skillSet</t>
+  </si>
+  <si>
+    <t>ozMagicSet</t>
+  </si>
+  <si>
+    <t>resourceID</t>
+  </si>
+  <si>
+    <t>pcIgnoreColTime</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>C101</t>
+  </si>
+  <si>
+    <t>법사모드 오즈</t>
+  </si>
+  <si>
+    <t>wizard</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>R101</t>
+  </si>
+  <si>
+    <t>C102</t>
+  </si>
+  <si>
+    <t>검사모드 오즈</t>
+  </si>
+  <si>
+    <t>swordman</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>컬럼명</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>데이터 형식</t>
+  </si>
+  <si>
+    <t>단위</t>
   </si>
   <si>
     <r>
@@ -480,7 +484,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PC</t>
+      <t>PC</t>
     </r>
     <r>
       <rPr>
@@ -490,11 +494,11 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">의 타입</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
+      <t>의 타입</t>
+    </r>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <r>
@@ -505,7 +509,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -515,17 +519,17 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">이 되면 사망</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">배율을 곱하기 전 기준 공격력</t>
+      <t>이 되면 사망</t>
+    </r>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>배율을 곱하기 전 기준 공격력</t>
   </si>
   <si>
     <r>
@@ -536,7 +540,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">설정된 이동속도의 배율</t>
+      <t>설정된 이동속도의 배율</t>
     </r>
     <r>
       <rPr>
@@ -546,7 +550,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -558,18 +562,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">*</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">n</t>
+      <t>n</t>
     </r>
   </si>
   <si>
@@ -581,7 +585,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">피격 후 다음 피격 가능 상태가 되기까지 시간</t>
+      <t>피격 후 다음 피격 가능 상태가 되기까지 시간</t>
     </r>
     <r>
       <rPr>
@@ -591,32 +595,32 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enemyMoveType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enemyAttackType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enemyHp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enemyBasePower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enemyMoveSpeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enemyColDamage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1001</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>enemyMoveType</t>
+  </si>
+  <si>
+    <t>enemyAttackType</t>
+  </si>
+  <si>
+    <t>enemyHp</t>
+  </si>
+  <si>
+    <t>enemyBasePower</t>
+  </si>
+  <si>
+    <t>enemyMoveSpeed</t>
+  </si>
+  <si>
+    <t>enemyColDamage</t>
+  </si>
+  <si>
+    <t>C1001</t>
   </si>
   <si>
     <r>
@@ -627,7 +631,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">적</t>
+      <t>적</t>
     </r>
     <r>
       <rPr>
@@ -637,7 +641,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">A(</t>
+      <t>A(</t>
     </r>
     <r>
       <rPr>
@@ -647,7 +651,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">보행</t>
+      <t>보행</t>
     </r>
     <r>
       <rPr>
@@ -657,20 +661,20 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">movetype_enemy_walking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atttype_enemy_melee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1002</t>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>movetype_enemy_walking</t>
+  </si>
+  <si>
+    <t>atttype_enemy_melee</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>C1002</t>
   </si>
   <si>
     <r>
@@ -681,7 +685,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">적</t>
+      <t>적</t>
     </r>
     <r>
       <rPr>
@@ -691,7 +695,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">B(</t>
+      <t>B(</t>
     </r>
     <r>
       <rPr>
@@ -701,7 +705,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">비행</t>
+      <t>비행</t>
     </r>
     <r>
       <rPr>
@@ -711,14 +715,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">movetype_enemy_flying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>movetype_enemy_flying</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <r>
@@ -729,7 +733,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">해당 적과 충돌 시 입는 피해 배율</t>
+      <t>해당 적과 충돌 시 입는 피해 배율</t>
     </r>
     <r>
       <rPr>
@@ -739,26 +743,26 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">*n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moveDirectionType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M102</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>*n</t>
+  </si>
+  <si>
+    <t>moveDirectionType</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>value2</t>
+  </si>
+  <si>
+    <t>value3</t>
+  </si>
+  <si>
+    <t>M102</t>
   </si>
   <si>
     <r>
@@ -769,7 +773,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PC</t>
+      <t>PC</t>
     </r>
     <r>
       <rPr>
@@ -779,17 +783,17 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">상승</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a1, a2</t>
+      <t>상승</t>
+    </r>
+  </si>
+  <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>M103</t>
+  </si>
+  <si>
+    <t>a1, a2</t>
   </si>
   <si>
     <r>
@@ -800,7 +804,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PC</t>
+      <t>PC</t>
     </r>
     <r>
       <rPr>
@@ -810,14 +814,14 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">대쉬</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">horizontal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M104</t>
+      <t>대쉬</t>
+    </r>
+  </si>
+  <si>
+    <t>horizontal</t>
+  </si>
+  <si>
+    <t>M104</t>
   </si>
   <si>
     <r>
@@ -828,7 +832,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PC</t>
+      <t>PC</t>
     </r>
     <r>
       <rPr>
@@ -838,11 +842,11 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">점프</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">M105</t>
+      <t>점프</t>
+    </r>
+  </si>
+  <si>
+    <t>M105</t>
   </si>
   <si>
     <r>
@@ -863,17 +867,17 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">두번째 점프</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">적용대상</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지속적으로 상승하는 속도의 배수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수평으로 추진하는 힘의 배수</t>
+      <t>두번째 점프</t>
+    </r>
+  </si>
+  <si>
+    <t>적용대상</t>
+  </si>
+  <si>
+    <t>지속적으로 상승하는 속도의 배수</t>
+  </si>
+  <si>
+    <t>수평으로 추진하는 힘의 배수</t>
   </si>
   <si>
     <r>
@@ -884,7 +888,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PC</t>
+      <t>PC</t>
     </r>
     <r>
       <rPr>
@@ -894,7 +898,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">점프</t>
+      <t>점프</t>
     </r>
     <r>
       <rPr>
@@ -914,11 +918,11 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">두번째 점프</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">수직으로 추진하는 점프력 배수</t>
+      <t>두번째 점프</t>
+    </r>
+  </si>
+  <si>
+    <t>수직으로 추진하는 점프력 배수</t>
   </si>
   <si>
     <r>
@@ -929,7 +933,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">상승 최대 유지시간</t>
+      <t>상승 최대 유지시간</t>
     </r>
     <r>
       <rPr>
@@ -939,7 +943,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -949,7 +953,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">체공 중</t>
+      <t>체공 중</t>
     </r>
     <r>
       <rPr>
@@ -959,38 +963,38 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">재사용 대기시간</t>
-  </si>
-  <si>
-    <t xml:space="preserve">체공 중 수평으로 추진하는 힘의 배수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">무적 판정 시간</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gageMax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gageConsume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gagePenalty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gageGainRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gageGainNormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gageGainCharge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">짜증 게이지</t>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>재사용 대기시간</t>
+  </si>
+  <si>
+    <t>체공 중 수평으로 추진하는 힘의 배수</t>
+  </si>
+  <si>
+    <t>무적 판정 시간</t>
+  </si>
+  <si>
+    <t>gageMax</t>
+  </si>
+  <si>
+    <t>gageConsume</t>
+  </si>
+  <si>
+    <t>gagePenalty</t>
+  </si>
+  <si>
+    <t>gageGainRange</t>
+  </si>
+  <si>
+    <t>gageGainNormal</t>
+  </si>
+  <si>
+    <t>gageGainCharge</t>
+  </si>
+  <si>
+    <t>짜증 게이지</t>
   </si>
   <si>
     <r>
@@ -1001,7 +1005,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">게이지의 총량</t>
+      <t>게이지의 총량</t>
     </r>
     <r>
       <rPr>
@@ -1011,7 +1015,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -1023,7 +1027,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">검사 모드 지속 시간 동안 초당 소모량</t>
+      <t>검사 모드 지속 시간 동안 초당 소모량</t>
     </r>
     <r>
       <rPr>
@@ -1033,11 +1037,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">n/s</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>n/s</t>
   </si>
   <si>
     <r>
@@ -1048,7 +1052,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">검사 모드 변신 해제 시 추가적으로 사라지는 게이지 비율</t>
+      <t>검사 모드 변신 해제 시 추가적으로 사라지는 게이지 비율</t>
     </r>
     <r>
       <rPr>
@@ -1058,11 +1062,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>%</t>
   </si>
   <si>
     <r>
@@ -1073,7 +1077,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">법사 모드 공격 시 자원을 획득할 수 있는 적과의 거리</t>
+      <t>법사 모드 공격 시 자원을 획득할 수 있는 적과의 거리</t>
     </r>
     <r>
       <rPr>
@@ -1083,11 +1087,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>m</t>
   </si>
   <si>
     <r>
@@ -1098,7 +1102,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">자원 획득 범위 내에서 일반 공격 사용 시 획득하는 자원의 양</t>
+      <t>자원 획득 범위 내에서 일반 공격 사용 시 획득하는 자원의 양</t>
     </r>
     <r>
       <rPr>
@@ -1108,7 +1112,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -1120,7 +1124,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">자원 획득 범위 내에서 강공격 사용 시 획득하는 자원의 양</t>
+      <t>자원 획득 범위 내에서 강공격 사용 시 획득하는 자원의 양</t>
     </r>
     <r>
       <rPr>
@@ -1130,53 +1134,50 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">skillRangeType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skillPowerRate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skillCooltime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">projectileID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">기본공격</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ranged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강공격</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">돌진베기</t>
-  </si>
-  <si>
-    <t xml:space="preserve">melee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1001</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>skillRangeType</t>
+  </si>
+  <si>
+    <t>skillPowerRate</t>
+  </si>
+  <si>
+    <t>skillCooltime</t>
+  </si>
+  <si>
+    <t>projectileID</t>
+  </si>
+  <si>
+    <t>기본공격</t>
+  </si>
+  <si>
+    <t>ranged</t>
+  </si>
+  <si>
+    <t>P101</t>
+  </si>
+  <si>
+    <t>S102</t>
+  </si>
+  <si>
+    <t>강공격</t>
+  </si>
+  <si>
+    <t>P102</t>
+  </si>
+  <si>
+    <t>S103</t>
+  </si>
+  <si>
+    <t>돌진베기</t>
+  </si>
+  <si>
+    <t>melee</t>
+  </si>
+  <si>
+    <t>S1001</t>
   </si>
   <si>
     <r>
@@ -1187,7 +1188,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">몹</t>
+      <t>몹</t>
     </r>
     <r>
       <rPr>
@@ -1207,11 +1208,11 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">공격</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">S2001</t>
+      <t>공격</t>
+    </r>
+  </si>
+  <si>
+    <t>S2001</t>
   </si>
   <si>
     <r>
@@ -1222,7 +1223,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">몹</t>
+      <t>몹</t>
     </r>
     <r>
       <rPr>
@@ -1242,7 +1243,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">공격</t>
+      <t>공격</t>
     </r>
   </si>
   <si>
@@ -1254,7 +1255,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">기술의 재사용 대기 시간</t>
+      <t>기술의 재사용 대기 시간</t>
     </r>
     <r>
       <rPr>
@@ -1264,7 +1265,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -1276,7 +1277,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">강공격 발동에 요구되는 차징 시간</t>
+      <t>강공격 발동에 요구되는 차징 시간</t>
     </r>
     <r>
       <rPr>
@@ -1286,7 +1287,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.(</t>
+      <t>.(</t>
     </r>
     <r>
       <rPr>
@@ -1296,7 +1297,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">달성 시 강제 발사</t>
+      <t>달성 시 강제 발사</t>
     </r>
     <r>
       <rPr>
@@ -1306,7 +1307,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -1318,7 +1319,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">적 타격 시 재사용 대기 시간</t>
+      <t>적 타격 시 재사용 대기 시간</t>
     </r>
     <r>
       <rPr>
@@ -1328,7 +1329,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -1340,7 +1341,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">강공격 차징 완료 시 오즈매직이 발동할 전체 확률</t>
+      <t>강공격 차징 완료 시 오즈매직이 발동할 전체 확률</t>
     </r>
     <r>
       <rPr>
@@ -1350,7 +1351,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -1365,7 +1366,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">각 기술의 공격력 배율</t>
+      <t>각 기술의 공격력 배율</t>
     </r>
     <r>
       <rPr>
@@ -1375,86 +1376,86 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ozMagicID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ozMagicType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gageGainOz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ozSkillPercentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ozPowerRate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chainProjectileID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chainPowerRate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">메테오</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투사체</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">왕복 화염구</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">과자 투척</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">느린 태양구</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">다같이 시간정지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">환경 변화</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투사체형 오즈매직들의 공격력 배율</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>ozMagicID</t>
+  </si>
+  <si>
+    <t>ozMagicType</t>
+  </si>
+  <si>
+    <t>gageGainOz</t>
+  </si>
+  <si>
+    <t>ozSkillPercentage</t>
+  </si>
+  <si>
+    <t>ozPowerRate</t>
+  </si>
+  <si>
+    <t>chainProjectileID</t>
+  </si>
+  <si>
+    <t>chainPowerRate</t>
+  </si>
+  <si>
+    <t>O101</t>
+  </si>
+  <si>
+    <t>메테오</t>
+  </si>
+  <si>
+    <t>투사체</t>
+  </si>
+  <si>
+    <t>P201</t>
+  </si>
+  <si>
+    <t>P2011</t>
+  </si>
+  <si>
+    <t>O102</t>
+  </si>
+  <si>
+    <t>왕복 화염구</t>
+  </si>
+  <si>
+    <t>P202</t>
+  </si>
+  <si>
+    <t>P2012</t>
+  </si>
+  <si>
+    <t>O103</t>
+  </si>
+  <si>
+    <t>과자 투척</t>
+  </si>
+  <si>
+    <t>P203</t>
+  </si>
+  <si>
+    <t>O104</t>
+  </si>
+  <si>
+    <t>느린 태양구</t>
+  </si>
+  <si>
+    <t>P204</t>
+  </si>
+  <si>
+    <t>O201</t>
+  </si>
+  <si>
+    <t>다같이 시간정지</t>
+  </si>
+  <si>
+    <t>환경 변화</t>
+  </si>
+  <si>
+    <t>투사체형 오즈매직들의 공격력 배율</t>
   </si>
   <si>
     <r>
@@ -1465,7 +1466,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">오즈매직 발동 시 획득하는 짜증 게이지 양</t>
+      <t>오즈매직 발동 시 획득하는 짜증 게이지 양</t>
     </r>
     <r>
       <rPr>
@@ -1475,7 +1476,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -1487,7 +1488,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">오즈매직 발동 시 각 기술이 발동할 확률</t>
+      <t>오즈매직 발동 시 각 기술이 발동할 확률</t>
     </r>
     <r>
       <rPr>
@@ -1497,7 +1498,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -1509,7 +1510,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">각 오즈매직의 공격력 배율</t>
+      <t>각 오즈매직의 공격력 배율</t>
     </r>
     <r>
       <rPr>
@@ -1519,38 +1520,38 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">투사체가 객체를 관통하는 동안 가하는 틱당 데미지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투사체가 돌아오기 전까지의 편도 거리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시간정지 지속 시간</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투사체의  틱당 데미지가 발생하는 간격</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투사체가 왕복운동하는 횟수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">회</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오즈매직으로 인해 느려지는 애니메이션 속도의 배율</t>
-  </si>
-  <si>
-    <t xml:space="preserve">파생 콜라이더 폭발 범위의 반지름</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">연계 시 추가로 주어지는 시간정지 지속시간</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>투사체가 객체를 관통하는 동안 가하는 틱당 데미지</t>
+  </si>
+  <si>
+    <t>투사체가 돌아오기 전까지의 편도 거리</t>
+  </si>
+  <si>
+    <t>시간정지 지속 시간</t>
+  </si>
+  <si>
+    <t>투사체의  틱당 데미지가 발생하는 간격</t>
+  </si>
+  <si>
+    <t>투사체가 왕복운동하는 횟수</t>
+  </si>
+  <si>
+    <t>회</t>
+  </si>
+  <si>
+    <t>오즈매직으로 인해 느려지는 애니메이션 속도의 배율</t>
+  </si>
+  <si>
+    <t>파생 콜라이더 폭발 범위의 반지름</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>연계 시 추가로 주어지는 시간정지 지속시간</t>
   </si>
   <si>
     <r>
@@ -1561,7 +1562,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">연계기 발동 시 공격력 배율</t>
+      <t>연계기 발동 시 공격력 배율</t>
     </r>
     <r>
       <rPr>
@@ -1571,101 +1572,101 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">projectileType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">projectileSpeedRate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">projectileLifeTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">projectileRemoveLandSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">projectileBounceCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">projectileRemoveTrigger2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">projectileRemoveTrigger3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">projectileTarget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">childColliderCheck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">childColliderID_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">childColliderID_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">일반 공격 콩알탄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parabola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enemyCollision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강공격 화염구</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hitDashSlash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enemyPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">과자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">왕복 운동 투사체</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RoundTrip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">느리고 강한 투사체</t>
-  </si>
-  <si>
-    <t xml:space="preserve">메테오 폭발</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">메테오 연계 폭발</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투사체 연계 시 폭발</t>
-  </si>
-  <si>
-    <t xml:space="preserve">투사체 존재 시간</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지형 충돌에 따른 투사체 소멸 조건</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>projectileType</t>
+  </si>
+  <si>
+    <t>projectileSpeedRate</t>
+  </si>
+  <si>
+    <t>projectileLifeTime</t>
+  </si>
+  <si>
+    <t>projectileRemoveLandSet</t>
+  </si>
+  <si>
+    <t>projectileBounceCount</t>
+  </si>
+  <si>
+    <t>projectileRemoveTrigger2</t>
+  </si>
+  <si>
+    <t>projectileRemoveTrigger3</t>
+  </si>
+  <si>
+    <t>projectileTarget</t>
+  </si>
+  <si>
+    <t>childColliderCheck</t>
+  </si>
+  <si>
+    <t>childColliderID_1</t>
+  </si>
+  <si>
+    <t>childColliderID_2</t>
+  </si>
+  <si>
+    <t>일반 공격 콩알탄</t>
+  </si>
+  <si>
+    <t>Parabola</t>
+  </si>
+  <si>
+    <t>enemyCollision</t>
+  </si>
+  <si>
+    <t>enemy</t>
+  </si>
+  <si>
+    <t>강공격 화염구</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>hitDashSlash</t>
+  </si>
+  <si>
+    <t>enemyPC</t>
+  </si>
+  <si>
+    <t>P2001</t>
+  </si>
+  <si>
+    <t>과자</t>
+  </si>
+  <si>
+    <t>왕복 운동 투사체</t>
+  </si>
+  <si>
+    <t>RoundTrip</t>
+  </si>
+  <si>
+    <t>느리고 강한 투사체</t>
+  </si>
+  <si>
+    <t>메테오 폭발</t>
+  </si>
+  <si>
+    <t>Explosion</t>
+  </si>
+  <si>
+    <t>메테오 연계 폭발</t>
+  </si>
+  <si>
+    <t>투사체 연계 시 폭발</t>
+  </si>
+  <si>
+    <t>투사체 존재 시간</t>
+  </si>
+  <si>
+    <t>지형 충돌에 따른 투사체 소멸 조건</t>
   </si>
   <si>
     <r>
@@ -1676,7 +1677,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">투사체 소멸까지 요구되는 지형충돌 횟수</t>
+      <t>투사체 소멸까지 요구되는 지형충돌 횟수</t>
     </r>
     <r>
       <rPr>
@@ -1686,23 +1687,23 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">적 충돌에 따른 투사체 소멸 조건</t>
-  </si>
-  <si>
-    <t xml:space="preserve">돌진베기 연계에 따른 투사체 소멸 조건</t>
-  </si>
-  <si>
-    <t xml:space="preserve">파생 콜라이더 생성 유무</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">childColliderID 1</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>적 충돌에 따른 투사체 소멸 조건</t>
+  </si>
+  <si>
+    <t>돌진베기 연계에 따른 투사체 소멸 조건</t>
+  </si>
+  <si>
+    <t>파생 콜라이더 생성 유무</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>childColliderID 1</t>
   </si>
   <si>
     <r>
@@ -1723,91 +1724,79 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">childColliderID 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">각 투사체의 피해 적용 대상</t>
-  </si>
-  <si>
-    <t xml:space="preserve">landSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">landType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a, b, c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지형 바닥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a, b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지형 벽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">얇은 발판</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">두꺼운 발판</t>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <t>childColliderID 2</t>
+  </si>
+  <si>
+    <t>각 투사체의 피해 적용 대상</t>
+  </si>
+  <si>
+    <t>landSet</t>
+  </si>
+  <si>
+    <t>landType</t>
+  </si>
+  <si>
+    <t>a, b, c</t>
+  </si>
+  <si>
+    <t>T101</t>
+  </si>
+  <si>
+    <t>지형 바닥</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>a, b</t>
+  </si>
+  <si>
+    <t>T102</t>
+  </si>
+  <si>
+    <t>지형 벽</t>
+  </si>
+  <si>
+    <t>T103</t>
+  </si>
+  <si>
+    <t>얇은 발판</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>T104</t>
+  </si>
+  <si>
+    <t>두꺼운 발판</t>
+  </si>
+  <si>
+    <t>S101</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>P101</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="m\-d"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="129"/>
     </font>
     <font>
@@ -1832,7 +1821,7 @@
       <charset val="129"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1867,7 +1856,7 @@
       <charset val="129"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -1893,6 +1882,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1923,7 +1918,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1931,161 +1926,88 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2144,62 +2066,78 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285f4"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ea4335"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="fbbc04"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34a853"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="ff6d01"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46bdc6"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -2229,7 +2167,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -2253,7 +2191,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2313,32 +2251,31 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.49"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2376,7 +2313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2386,13 +2323,13 @@
       <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -2407,12 +2344,12 @@
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="3">
         <v>1</v>
       </c>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -2422,13 +2359,13 @@
       <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="3">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -2443,36 +2380,27 @@
       <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="3">
         <v>1</v>
       </c>
       <c r="L3" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
@@ -2494,7 +2422,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>96</v>
       </c>
@@ -2502,7 +2430,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -2516,15 +2444,15 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -2538,13 +2466,13 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -2558,15 +2486,15 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -2580,13 +2508,13 @@
       <c r="I5" s="18"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -2600,7 +2528,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>95</v>
       </c>
@@ -2608,7 +2536,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -2623,60 +2551,53 @@
       <c r="J7" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.73"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>55</v>
@@ -2688,125 +2609,125 @@
         <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3">
+        <v>50</v>
+      </c>
+      <c r="G2" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>100</v>
+      </c>
+      <c r="I2" s="3">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="3">
+        <v>100</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" s="10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2" s="3">
         <v>100</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3">
+        <v>25</v>
+      </c>
+      <c r="G3" s="10">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>75</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>75</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3" s="3">
         <v>50</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>25</v>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="G4" s="10">
         <v>25</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="3">
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -2815,41 +2736,41 @@
       <c r="J4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="3">
         <v>75</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="M4" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="M4" s="3">
         <v>50</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>25</v>
       </c>
-      <c r="G5" s="10" t="n">
+      <c r="G5" s="10">
         <v>25</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="3">
         <v>100</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -2858,50 +2779,50 @@
       <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="3">
         <v>75</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="M5" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="M5" s="3">
         <v>50</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>50</v>
       </c>
-      <c r="G6" s="10" t="n">
+      <c r="G6" s="10">
         <v>12.5</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="3">
         <v>3</v>
       </c>
-      <c r="J6" s="13" t="n">
+      <c r="J6" s="13">
         <v>0.1</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="3">
         <v>5</v>
       </c>
       <c r="L6" s="3" t="s">
@@ -2913,13 +2834,13 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -2928,79 +2849,70 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="K18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G27" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.73"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>23</v>
       </c>
@@ -3027,15 +2939,15 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -3054,15 +2966,15 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3081,15 +2993,15 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -3107,15 +3019,15 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -3133,15 +3045,15 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -3158,13 +3070,13 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -3182,13 +3094,13 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -3206,15 +3118,15 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -3232,13 +3144,13 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -3247,7 +3159,7 @@
         <v>30</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I10" s="7"/>
       <c r="K10" s="7"/>
@@ -3256,13 +3168,13 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -3280,15 +3192,15 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -3306,13 +3218,13 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -3330,13 +3242,13 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -3354,13 +3266,13 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -3375,18 +3287,18 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -3404,15 +3316,15 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -3429,14 +3341,14 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -3453,7 +3365,7 @@
       <c r="N19" s="11"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
@@ -3470,7 +3382,7 @@
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
@@ -3487,7 +3399,7 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
@@ -3504,7 +3416,7 @@
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
@@ -3521,7 +3433,7 @@
       <c r="N23" s="9"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="9"/>
@@ -3537,7 +3449,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3553,7 +3465,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -3569,7 +3481,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -3585,7 +3497,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -3595,43 +3507,36 @@
       <c r="O30" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="22.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.55"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
@@ -3639,37 +3544,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="25" t="s">
         <v>167</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>168</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>11</v>
@@ -3687,82 +3592,82 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="n">
+      <c r="D2" s="13">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
         <v>10</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="3">
         <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="K2" s="27" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="n">
+      <c r="D3" s="13">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
         <v>10</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="K3" s="27" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -3773,299 +3678,299 @@
       </c>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="n">
+        <v>174</v>
+      </c>
+      <c r="D4" s="13">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
         <v>10</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="27" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="K4" s="27" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="n">
+        <v>169</v>
+      </c>
+      <c r="D5" s="13">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
         <v>10</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="3">
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="K5" s="27" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="13">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K5" s="27" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="K6" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="n">
+      <c r="C7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="13">
         <v>10</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K6" s="27" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="3">
         <v>10</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="27" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K7" s="27" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="K9" s="27" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="3" t="n">
+      <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E10" s="3">
         <v>0.3</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K8" s="27" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="F10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K10" s="27" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K9" s="27" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K10" s="27" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>22</v>
       </c>
@@ -4074,52 +3979,45 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="F11" s="28"/>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="F12" s="28"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G39" activeCellId="0" sqref="G39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="22.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.55"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
@@ -4142,12 +4040,12 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="3" t="s">
@@ -4165,12 +4063,12 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
@@ -4188,12 +4086,12 @@
       <c r="L3" s="9"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>30</v>
@@ -4209,12 +4107,12 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
@@ -4232,12 +4130,12 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
@@ -4255,16 +4153,16 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -4278,12 +4176,12 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="3" t="s">
@@ -4301,12 +4199,12 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="3" t="s">
@@ -4324,12 +4222,12 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="3" t="s">
@@ -4341,32 +4239,25 @@
       <c r="F10" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4375,94 +4266,87 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.49"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -4484,7 +4368,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4504,7 +4388,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4526,7 +4410,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4548,7 +4432,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4570,7 +4454,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4592,7 +4476,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -4606,7 +4490,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -4622,7 +4506,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -4638,7 +4522,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -4654,7 +4538,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4670,7 +4554,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -4686,7 +4570,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -4702,7 +4586,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -4718,7 +4602,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -4734,7 +4618,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -4751,38 +4635,31 @@
       <c r="N16" s="9"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.27"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4817,7 +4694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
@@ -4830,25 +4707,25 @@
       <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>30</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="3">
         <v>1</v>
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
@@ -4861,57 +4738,48 @@
       <c r="D3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>30</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="3">
         <v>1</v>
       </c>
       <c r="K3" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.27"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -4926,7 +4794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -4941,7 +4809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -4956,7 +4824,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -4971,7 +4839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -4987,34 +4855,27 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.06"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5042,7 +4903,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -5055,20 +4916,20 @@
       <c r="D2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="12" t="n">
+      <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="10" t="n">
+      <c r="F2" s="10">
         <v>2</v>
       </c>
-      <c r="G2" s="13" t="n">
+      <c r="G2" s="13">
         <v>1</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
@@ -5081,20 +4942,20 @@
       <c r="D3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="3">
         <v>0.5</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="3">
         <v>0.3</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>65</v>
       </c>
@@ -5107,20 +4968,20 @@
       <c r="D4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="13">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="13" t="n">
+      <c r="G4" s="13">
         <v>1</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>67</v>
       </c>
@@ -5133,20 +4994,20 @@
       <c r="D5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="12">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="13" t="n">
+      <c r="G5" s="13">
         <v>1</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -5158,7 +5019,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -5171,35 +5032,26 @@
       <c r="J7" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.06"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
@@ -5221,7 +5073,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -5243,7 +5095,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="7" t="s">
         <v>63</v>
@@ -5263,7 +5115,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="7" t="s">
         <v>72</v>
@@ -5283,7 +5135,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -5305,7 +5157,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="7" t="s">
         <v>63</v>
@@ -5325,7 +5177,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -5347,7 +5199,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="7" t="s">
         <v>72</v>
@@ -5367,7 +5219,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="7" t="s">
         <v>63</v>
@@ -5388,36 +5240,27 @@
       <c r="J9" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.84"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5446,64 +5289,55 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="3">
         <v>100</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="3">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="3">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="3">
         <v>10</v>
       </c>
       <c r="I2" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.84"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
@@ -5522,7 +5356,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
@@ -5541,7 +5375,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
@@ -5560,7 +5394,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
@@ -5579,7 +5413,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
@@ -5598,7 +5432,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>82</v>
       </c>
@@ -5617,7 +5451,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>83</v>
       </c>
@@ -5637,30 +5471,23 @@
       <c r="I7" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5692,20 +5519,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>30</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -5718,63 +5545,63 @@
         <v>22</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="3">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>30</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>30</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>1.5</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="3">
         <v>0.5</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="3">
         <v>5</v>
       </c>
       <c r="I4" s="17" t="s">
@@ -5782,23 +5609,23 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="3" t="n">
+        <v>106</v>
+      </c>
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -5812,23 +5639,23 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="3" t="n">
+        <v>106</v>
+      </c>
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -5842,7 +5669,7 @@
       </c>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -5855,13 +5682,9 @@
       <c r="J7" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -3517,7 +3517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -5481,8 +5481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5521,10 +5521,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>98</v>
@@ -5551,10 +5551,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>102</v>
@@ -5581,10 +5581,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>105</v>
@@ -5611,10 +5611,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>108</v>
@@ -5641,10 +5641,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>110</v>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="216">
   <si>
     <t>ID</t>
   </si>
@@ -1399,9 +1399,6 @@
   </si>
   <si>
     <t>chainPowerRate</t>
-  </si>
-  <si>
-    <t>O101</t>
   </si>
   <si>
     <t>메테오</t>
@@ -1782,6 +1779,22 @@
   <si>
     <t>P101</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>O101</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabName</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meteor</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meteor</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1791,7 +1804,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1889,6 +1902,13 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2561,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G2:G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2576,10 +2596,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2614,26 +2634,28 @@
       <c r="M1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="F2" s="3">
         <v>50</v>
@@ -2654,29 +2676,31 @@
         <v>100</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M2" s="3">
         <v>100</v>
       </c>
-      <c r="N2" s="7"/>
+      <c r="N2" t="s">
+        <v>214</v>
+      </c>
       <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="F3" s="3">
         <v>25</v>
@@ -2697,29 +2721,31 @@
         <v>75</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M3" s="3">
         <v>50</v>
       </c>
-      <c r="N3" s="7"/>
+      <c r="N3" t="s">
+        <v>215</v>
+      </c>
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="F4" s="3">
         <v>25</v>
@@ -2740,29 +2766,31 @@
         <v>75</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M4" s="3">
         <v>50</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" t="s">
+        <v>215</v>
+      </c>
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="F5" s="3">
         <v>25</v>
@@ -2783,26 +2811,28 @@
         <v>75</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M5" s="3">
         <v>50</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" t="s">
+        <v>215</v>
+      </c>
       <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
@@ -2831,7 +2861,9 @@
       <c r="M6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" t="s">
+        <v>215</v>
+      </c>
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2947,7 +2979,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -2974,7 +3006,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3001,7 +3033,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -3027,7 +3059,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -3050,10 +3082,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -3073,10 +3105,10 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -3097,10 +3129,10 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -3123,10 +3155,10 @@
         <v>56</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -3147,10 +3179,10 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -3159,7 +3191,7 @@
         <v>30</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I10" s="7"/>
       <c r="K10" s="7"/>
@@ -3171,10 +3203,10 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -3197,10 +3229,10 @@
         <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -3221,10 +3253,10 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -3245,10 +3277,10 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -3269,10 +3301,10 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -3287,7 +3319,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -3295,10 +3327,10 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -3324,7 +3356,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -3518,7 +3550,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3544,37 +3576,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="25" t="s">
         <v>166</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>167</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>11</v>
@@ -3597,10 +3629,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="D2" s="13">
         <v>10</v>
@@ -3615,13 +3647,13 @@
         <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="K2" s="27" t="b">
         <f>FALSE()</f>
@@ -3640,10 +3672,10 @@
         <v>103</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="D3" s="13">
         <v>10</v>
@@ -3658,13 +3690,13 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="K3" s="27" t="b">
         <f>FALSE()</f>
@@ -3680,13 +3712,13 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="13">
         <v>10</v>
@@ -3704,32 +3736,32 @@
         <v>22</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="K4" s="27" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" s="13">
         <v>10</v>
@@ -3744,13 +3776,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="K5" s="27" t="b">
         <f>TRUE()</f>
@@ -3760,19 +3792,19 @@
         <v>22</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="D6" s="13">
         <v>10</v>
@@ -3790,10 +3822,10 @@
         <v>22</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="K6" s="27" t="b">
         <f>FALSE()</f>
@@ -3803,19 +3835,19 @@
         <v>22</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" s="13">
         <v>10</v>
@@ -3830,13 +3862,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="K7" s="27" t="b">
         <f>TRUE()</f>
@@ -3846,19 +3878,19 @@
         <v>22</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -3879,7 +3911,7 @@
         <v>22</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K8" s="27" t="b">
         <f>FALSE()</f>
@@ -3895,13 +3927,13 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -3922,7 +3954,7 @@
         <v>22</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K9" s="27" t="b">
         <f>FALSE()</f>
@@ -3938,13 +3970,13 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -3965,7 +3997,7 @@
         <v>22</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K10" s="27" t="b">
         <f>FALSE()</f>
@@ -4042,10 +4074,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="3" t="s">
@@ -4065,10 +4097,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
@@ -4088,10 +4120,10 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>30</v>
@@ -4109,10 +4141,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
@@ -4132,10 +4164,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
@@ -4155,14 +4187,14 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -4178,10 +4210,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="3" t="s">
@@ -4201,10 +4233,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="3" t="s">
@@ -4224,10 +4256,10 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="3" t="s">
@@ -4257,7 +4289,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4266,35 +4298,35 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4302,27 +4334,27 @@
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5481,7 +5513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -5521,7 +5553,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
@@ -5545,7 +5577,7 @@
         <v>22</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J2" s="7"/>
     </row>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\aa\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -2265,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>15</v>
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>21</v>
@@ -4866,7 +4866,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5481,7 +5481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\aa\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
     <sheet name="Projectile설명표" sheetId="14" r:id="rId14"/>
     <sheet name="Level" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -2582,7 +2582,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2682,7 +2682,7 @@
         <v>100</v>
       </c>
       <c r="N2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O2" s="9"/>
     </row>
@@ -2727,7 +2727,7 @@
         <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O3" s="9"/>
     </row>
@@ -2772,7 +2772,7 @@
         <v>50</v>
       </c>
       <c r="N4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O4" s="9"/>
     </row>
@@ -2817,7 +2817,7 @@
         <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O5" s="9"/>
     </row>
@@ -2862,7 +2862,7 @@
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O6" s="7"/>
     </row>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -2285,8 +2285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>15</v>
@@ -2386,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>21</v>
@@ -2581,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -2286,7 +2286,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>15</v>
@@ -2385,8 +2385,8 @@
       <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
-        <v>300</v>
+      <c r="F3" s="27">
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>21</v>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\github\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2286,7 +2286,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>15</v>
@@ -2386,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>21</v>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\aa\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -2286,7 +2286,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>15</v>
@@ -2386,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>21</v>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -2286,7 +2286,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="760" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -2285,7 +2285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -3549,8 +3549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3635,7 +3635,7 @@
         <v>168</v>
       </c>
       <c r="D2" s="13">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3">
         <v>10</v>
@@ -3678,7 +3678,7 @@
         <v>172</v>
       </c>
       <c r="D3" s="13">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3">
         <v>10</v>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\github\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BD2BA1-B00D-4CA8-BA0A-FC34AB59A6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="760" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -28,8 +29,19 @@
     <sheet name="Projectile설명표" sheetId="14" r:id="rId14"/>
     <sheet name="Level" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -38,12 +50,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -178,12 +190,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -196,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -222,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -240,12 +252,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -258,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -284,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -297,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
       <text>
         <r>
           <rPr>
@@ -323,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
       <text>
         <r>
           <rPr>
@@ -336,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0">
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000008000000}">
       <text>
         <r>
           <rPr>
@@ -349,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000009000000}">
       <text>
         <r>
           <rPr>
@@ -362,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0">
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -375,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0">
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1800,7 +1812,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m\-d"/>
   </numFmts>
@@ -1949,7 +1961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2015,10 +2027,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2282,7 +2290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2385,7 +2393,7 @@
       <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="3">
         <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -2413,7 +2421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -2578,7 +2586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2930,7 +2938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -3546,10 +3554,10 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3655,7 +3663,7 @@
       <c r="J2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="27" t="b">
+      <c r="K2" s="3" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3698,7 +3706,7 @@
       <c r="J3" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="27" t="b">
+      <c r="K3" s="3" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3741,7 +3749,7 @@
       <c r="J4" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="K4" s="27" t="b">
+      <c r="K4" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -3784,7 +3792,7 @@
       <c r="J5" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="K5" s="27" t="b">
+      <c r="K5" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -3827,7 +3835,7 @@
       <c r="J6" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="K6" s="27" t="b">
+      <c r="K6" s="3" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3870,7 +3878,7 @@
       <c r="J7" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="K7" s="27" t="b">
+      <c r="K7" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -3913,7 +3921,7 @@
       <c r="J8" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="K8" s="27" t="b">
+      <c r="K8" s="3" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3956,7 +3964,7 @@
       <c r="J9" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="K9" s="27" t="b">
+      <c r="K9" s="3" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -3999,7 +4007,7 @@
       <c r="J10" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="K10" s="27" t="b">
+      <c r="K10" s="3" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -4013,11 +4021,9 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="F12" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -4027,7 +4033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4122,13 +4128,13 @@
       <c r="A4" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="27" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="7"/>
@@ -4278,7 +4284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4365,7 +4371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4674,7 +4680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4796,7 +4802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -4894,7 +4900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5072,7 +5078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -5279,7 +5285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -5356,7 +5362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -5510,11 +5516,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5634,7 +5640,7 @@
         <v>0.5</v>
       </c>
       <c r="H4" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>22</v>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Game\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BD2BA1-B00D-4CA8-BA0A-FC34AB59A6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <sheet name="Projectile설명표" sheetId="14" r:id="rId14"/>
     <sheet name="Level" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,12 +49,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,12 +189,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,12 +251,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -348,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000008000000}">
+    <comment ref="K5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -361,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000009000000}">
+    <comment ref="I6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -374,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000A000000}">
+    <comment ref="J6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -387,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000B000000}">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="217">
   <si>
     <t>ID</t>
   </si>
@@ -1808,11 +1807,15 @@
     <t>Meteor</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>TimeStop</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m\-d"/>
   </numFmts>
@@ -2290,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2421,7 +2424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -2586,11 +2589,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2870,7 +2873,7 @@
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O6" s="7"/>
     </row>
@@ -2938,7 +2941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -3554,7 +3557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4033,7 +4036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4284,7 +4287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4371,7 +4374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4680,7 +4683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4802,7 +4805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -4900,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5078,7 +5081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -5285,7 +5288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -5362,7 +5365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -5516,10 +5519,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="219">
   <si>
     <t>ID</t>
   </si>
@@ -1804,11 +1804,19 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Meteor</t>
+    <t>TimeStop</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>TimeStop</t>
+    <t>-</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -1964,7 +1972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2031,6 +2039,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2592,8 +2603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2693,7 +2704,7 @@
         <v>100</v>
       </c>
       <c r="N2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O2" s="9"/>
     </row>
@@ -2737,8 +2748,8 @@
       <c r="M3" s="3">
         <v>50</v>
       </c>
-      <c r="N3" t="s">
-        <v>214</v>
+      <c r="N3" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="O3" s="9"/>
     </row>
@@ -2782,8 +2793,8 @@
       <c r="M4" s="3">
         <v>50</v>
       </c>
-      <c r="N4" t="s">
-        <v>214</v>
+      <c r="N4" s="28" t="s">
+        <v>217</v>
       </c>
       <c r="O4" s="9"/>
     </row>
@@ -2827,8 +2838,8 @@
       <c r="M5" s="3">
         <v>50</v>
       </c>
-      <c r="N5" t="s">
-        <v>214</v>
+      <c r="N5" s="28" t="s">
+        <v>218</v>
       </c>
       <c r="O5" s="9"/>
     </row>
@@ -2873,7 +2884,7 @@
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O6" s="7"/>
     </row>
@@ -2935,8 +2946,8 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BD2BA1-B00D-4CA8-BA0A-FC34AB59A6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <sheet name="Projectile설명표" sheetId="14" r:id="rId14"/>
     <sheet name="Level" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,12 +49,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,12 +189,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,12 +251,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -348,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000008000000}">
+    <comment ref="K5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -361,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000009000000}">
+    <comment ref="I6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -374,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000A000000}">
+    <comment ref="J6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -387,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000B000000}">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1812,7 +1811,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m\-d"/>
   </numFmts>
@@ -2290,7 +2289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2421,7 +2420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -2586,7 +2585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2938,7 +2937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -3554,7 +3553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4033,7 +4032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4284,7 +4283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4371,7 +4370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4680,7 +4679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4802,7 +4801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -4900,7 +4899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5078,7 +5077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -5285,7 +5284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -5362,7 +5361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -5516,11 +5515,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5610,7 +5609,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>103</v>
@@ -5722,7 +5721,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Game\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BD2BA1-B00D-4CA8-BA0A-FC34AB59A6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <sheet name="Projectile설명표" sheetId="14" r:id="rId14"/>
     <sheet name="Level" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,12 +49,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,12 +189,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,12 +251,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
+    <comment ref="K3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -348,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000008000000}">
+    <comment ref="K5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -361,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000009000000}">
+    <comment ref="I6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -374,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000A000000}">
+    <comment ref="J6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -387,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000B000000}">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="219">
   <si>
     <t>ID</t>
   </si>
@@ -1805,14 +1804,26 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Meteor</t>
+    <t>TimeStop</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m\-d"/>
   </numFmts>
@@ -1961,7 +1972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2028,6 +2039,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2290,7 +2304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2421,7 +2435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -2586,11 +2600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2690,7 +2704,7 @@
         <v>100</v>
       </c>
       <c r="N2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O2" s="9"/>
     </row>
@@ -2734,8 +2748,8 @@
       <c r="M3" s="3">
         <v>50</v>
       </c>
-      <c r="N3" t="s">
-        <v>214</v>
+      <c r="N3" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="O3" s="9"/>
     </row>
@@ -2779,8 +2793,8 @@
       <c r="M4" s="3">
         <v>50</v>
       </c>
-      <c r="N4" t="s">
-        <v>214</v>
+      <c r="N4" s="28" t="s">
+        <v>217</v>
       </c>
       <c r="O4" s="9"/>
     </row>
@@ -2824,8 +2838,8 @@
       <c r="M5" s="3">
         <v>50</v>
       </c>
-      <c r="N5" t="s">
-        <v>214</v>
+      <c r="N5" s="28" t="s">
+        <v>218</v>
       </c>
       <c r="O5" s="9"/>
     </row>
@@ -2870,7 +2884,7 @@
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O6" s="7"/>
     </row>
@@ -2932,13 +2946,13 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -3554,7 +3568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4033,7 +4047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4284,7 +4298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4371,7 +4385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4680,7 +4694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4802,7 +4816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -4900,7 +4914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5078,7 +5092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -5285,7 +5299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -5362,7 +5376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -5516,10 +5530,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -2604,7 +2604,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2683,7 +2683,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="10">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3">
         <v>100</v>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Game\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2604,7 +2604,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2683,7 +2683,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="10">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="H2" s="3">
         <v>100</v>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\github\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="227">
   <si>
     <t>ID</t>
   </si>
@@ -1818,6 +1818,31 @@
   <si>
     <t>-</t>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1003</t>
+  </si>
+  <si>
+    <t>적C(보행)</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>C1004</t>
+  </si>
+  <si>
+    <t>적D(비행)</t>
+  </si>
+  <si>
+    <t>atttype_enemy_ranged</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1827,7 +1852,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1933,8 +1958,20 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1959,8 +1996,14 @@
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1968,11 +2011,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2043,6 +2101,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2603,7 +2667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -3571,8 +3635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3712,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>22</v>
@@ -4695,16 +4759,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
@@ -4777,7 +4841,7 @@
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
@@ -4808,10 +4872,74 @@
       </c>
       <c r="K3" s="7"/>
     </row>
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="29">
+        <v>60</v>
+      </c>
+      <c r="F4" s="29">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30">
+        <v>1</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="29">
+        <v>30</v>
+      </c>
+      <c r="F5" s="29">
+        <v>1</v>
+      </c>
+      <c r="G5" s="30">
+        <v>1</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="29">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5534,7 +5662,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5585,7 +5713,7 @@
         <v>99</v>
       </c>
       <c r="E2" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>22</v>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -2668,7 +2668,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2792,7 +2792,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="10">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>30</v>
@@ -2837,7 +2837,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="10">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -2882,7 +2882,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="10">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>100</v>
@@ -2927,7 +2927,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="10">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>22</v>
@@ -3635,8 +3635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4761,7 +4761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -5662,7 +5662,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5749,7 +5749,7 @@
         <v>22</v>
       </c>
       <c r="G3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <v>30</v>
@@ -5782,7 +5782,7 @@
         <v>0.5</v>
       </c>
       <c r="H4" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>22</v>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\github\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="227">
   <si>
     <t>ID</t>
   </si>
@@ -1818,6 +1818,31 @@
   <si>
     <t>-</t>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1003</t>
+  </si>
+  <si>
+    <t>적C(보행)</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>C1004</t>
+  </si>
+  <si>
+    <t>적D(비행)</t>
+  </si>
+  <si>
+    <t>atttype_enemy_ranged</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1827,7 +1852,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1933,8 +1958,20 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1959,8 +1996,14 @@
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1968,11 +2011,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2043,6 +2101,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2603,8 +2667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2728,7 +2792,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="10">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>30</v>
@@ -2773,7 +2837,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="10">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -2818,7 +2882,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="10">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>100</v>
@@ -2863,7 +2927,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="10">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>22</v>
@@ -3572,7 +3636,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3712,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>22</v>
@@ -4695,16 +4759,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
@@ -4777,7 +4841,7 @@
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
@@ -4808,10 +4872,74 @@
       </c>
       <c r="K3" s="7"/>
     </row>
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="29">
+        <v>60</v>
+      </c>
+      <c r="F4" s="29">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30">
+        <v>1</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="29">
+        <v>30</v>
+      </c>
+      <c r="F5" s="29">
+        <v>1</v>
+      </c>
+      <c r="G5" s="30">
+        <v>1</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="29">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5534,7 +5662,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5585,7 +5713,7 @@
         <v>99</v>
       </c>
       <c r="E2" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>22</v>
@@ -5621,7 +5749,7 @@
         <v>22</v>
       </c>
       <c r="G3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <v>30</v>
@@ -5654,7 +5782,7 @@
         <v>0.5</v>
       </c>
       <c r="H4" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>22</v>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="219">
   <si>
     <t>ID</t>
   </si>
@@ -2603,8 +2603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2869,7 +2869,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="3">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J6" s="13">
         <v>0.1</v>
@@ -5533,8 +5533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5585,7 +5585,7 @@
         <v>99</v>
       </c>
       <c r="E2" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>22</v>
@@ -5736,7 +5736,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -2667,8 +2667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2927,7 +2927,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="10">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>22</v>
@@ -4761,7 +4761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -5046,7 +5046,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5662,7 +5662,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5713,7 +5713,7 @@
         <v>99</v>
       </c>
       <c r="E2" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>22</v>
@@ -5864,7 +5864,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -2667,7 +2667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -5430,7 +5430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5480,7 +5482,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3">
         <v>20</v>
@@ -5489,10 +5491,10 @@
         <v>22</v>
       </c>
       <c r="G2" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I2" s="7"/>
     </row>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\github\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\Project_Oz\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -2668,7 +2668,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3635,8 +3635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3810,7 +3810,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>51</v>
@@ -5046,7 +5046,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5223,7 +5223,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5430,7 +5432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -5509,7 +5511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5664,7 +5668,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5751,7 +5755,7 @@
         <v>22</v>
       </c>
       <c r="G3" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H3" s="3">
         <v>30</v>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="20655" windowHeight="11295" tabRatio="760" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Pc" sheetId="1" r:id="rId1"/>
@@ -2667,8 +2667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2747,7 +2747,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="10">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3">
         <v>100</v>
@@ -2759,7 +2759,7 @@
         <v>0.5</v>
       </c>
       <c r="K2" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>127</v>
@@ -2927,13 +2927,13 @@
         <v>50</v>
       </c>
       <c r="G6" s="10">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J6" s="13">
         <v>0.1</v>
@@ -3635,8 +3635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5432,7 +5432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -5668,7 +5668,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
